--- a/parceiros.xlsx
+++ b/parceiros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Parceiro A</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>2000</v>
@@ -487,6 +487,28 @@
       </c>
       <c r="C4" t="n">
         <v>250</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>500</v>
+      </c>
+      <c r="C6" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
